--- a/Data/test_dataset2.xlsx
+++ b/Data/test_dataset2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uml\mohammadT\GitHub\MkBth2025\Data\For WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9109498B-56EC-4B39-93EE-0BC616A5A765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649C0FBB-EC6E-4AAB-8F73-7E0E8317617D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9017" activeTab="2" xr2:uid="{CD726DAA-6090-4DB9-ACE2-8F8A777FC072}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9017" activeTab="1" xr2:uid="{CD726DAA-6090-4DB9-ACE2-8F8A777FC072}"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
   <si>
     <t>@startuml
 |Site Visitor|
@@ -5586,6 +5586,9 @@
 Output Format: Complete PlantUML activity diagram code starting with @startuml and ending with @enduml
 Enhanced AI Insight: Focus on modeling the complete workflow with proper activity flow, decisions, and parallel processes as identified by the AI analysis.
 </t>
+  </si>
+  <si>
+    <t>Some of data are shown here</t>
   </si>
 </sst>
 </file>
@@ -6084,7 +6087,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6096,6 +6099,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6456,7 +6460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD51"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6985,7 +6989,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -6993,7 +6997,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -7001,7 +7005,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -7009,7 +7013,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -7017,7 +7021,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -7025,7 +7029,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -7033,7 +7037,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="3"/>
@@ -7041,7 +7045,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -7049,7 +7053,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -7057,7 +7061,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -7065,7 +7069,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="3"/>
@@ -7073,7 +7077,10 @@
       <c r="R43" s="3"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -7081,7 +7088,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="9:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I45" s="2"/>
       <c r="K45" s="1"/>
       <c r="L45" s="3"/>
@@ -7090,7 +7097,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="9:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K46" s="4"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -7098,7 +7105,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="9:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K47" s="3"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7106,7 +7113,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="9:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7149,9 +7156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90260627-23FB-430C-A712-B1C6867C93D4}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7448,7 +7455,9 @@
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:31" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="6" spans="1:31" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
@@ -7598,8 +7607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ADB030-5E19-4DE7-8282-4A50BA150E96}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7901,6 +7910,9 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:31" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
